--- a/E3/sub_ids_3A.xlsx
+++ b/E3/sub_ids_3A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcassan2/Documents/GitHub/Scramble_Music/E3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F668705-B86E-D84F-A0EB-CC99AFA8617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE25C9A-07EE-6B40-B555-DB93E7E9FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="740" windowWidth="28040" windowHeight="16920" xr2:uid="{AB38DD56-377D-CD4D-92E6-2D0E36AC6D1D}"/>
+    <workbookView xWindow="-35700" yWindow="-9480" windowWidth="28040" windowHeight="16920" xr2:uid="{AB38DD56-377D-CD4D-92E6-2D0E36AC6D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E676A-3F83-0C4C-888E-E960620CDD18}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,15 +437,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>344739</v>
+        <v>342236</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>354009</v>
+        <v>342299</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>359105</v>
+        <v>342301</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -461,15 +461,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>359117</v>
+        <v>344058</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>360430</v>
+        <v>344111</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>361567</v>
+        <v>344739</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>361615</v>
+        <v>346025</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -493,23 +493,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>361959</v>
+        <v>352007</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>385662</v>
+        <v>352021</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>360230</v>
+        <v>353993</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>361611</v>
+        <v>354009</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -525,47 +525,47 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>342299</v>
+        <v>355341</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>342301</v>
+        <v>355343</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>357409</v>
+        <v>355346</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>359116</v>
+        <v>355373</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>385575</v>
+        <v>355519</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>362551</v>
+        <v>356778</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>610756</v>
+        <v>356785</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -581,23 +581,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>346025</v>
+        <v>356799</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>353993</v>
+        <v>356801</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>356778</v>
+        <v>357404</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>356785</v>
+        <v>357409</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -613,31 +613,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>363111</v>
+        <v>357422</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>388167</v>
+        <v>357427</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>388171</v>
+        <v>357468</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>481849</v>
+        <v>359105</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>483538</v>
+        <v>359116</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>388216</v>
+        <v>359117</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -661,15 +661,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>344111</v>
+        <v>359121</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>357404</v>
+        <v>360225</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>360225</v>
+        <v>360230</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -685,15 +685,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>360625</v>
+        <v>360247</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>385577</v>
+        <v>360430</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>389621</v>
+        <v>360625</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -709,23 +709,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>389641</v>
+        <v>360645</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>481854</v>
+        <v>361062</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>610501</v>
+        <v>361063</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -733,31 +733,31 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>610499</v>
+        <v>361567</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>481795</v>
+        <v>361611</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>481793</v>
+        <v>361615</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>385673</v>
+        <v>361865</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -765,23 +765,23 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>362637</v>
+        <v>361959</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>356799</v>
+        <v>362551</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>355519</v>
+        <v>362553</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>355346</v>
+        <v>362580</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>342236</v>
+        <v>362637</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -805,15 +805,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>352007</v>
+        <v>363111</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>355373</v>
+        <v>363707</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>357427</v>
+        <v>364125</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -829,31 +829,31 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>361063</v>
+        <v>385575</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>362580</v>
+        <v>385577</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>481798</v>
+        <v>385662</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>481883</v>
+        <v>385673</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -861,47 +861,47 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>610503</v>
+        <v>388167</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>344058</v>
+        <v>388171</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>352021</v>
+        <v>388216</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>355341</v>
+        <v>389621</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>356801</v>
+        <v>389641</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>357468</v>
+        <v>481793</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>359121</v>
+        <v>481795</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>361062</v>
+        <v>481798</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -925,23 +925,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>484185</v>
+        <v>481849</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>610522</v>
+        <v>481854</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>355343</v>
+        <v>481883</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -949,15 +949,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>357422</v>
+        <v>483538</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>360247</v>
+        <v>484185</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>360645</v>
+        <v>610499</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>361865</v>
+        <v>610501</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>362553</v>
+        <v>610503</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>363707</v>
+        <v>610522</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>364125</v>
+        <v>610756</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,6 +1012,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
+    <sortCondition ref="A1:A73"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>